--- a/biology/Mycologie/Pestalotia/Pestalotia.xlsx
+++ b/biology/Mycologie/Pestalotia/Pestalotia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pestalotia est un genre de champignons ascomycètes de la famille des Amphisphaeriaceae.
 Plusieurs espèces de ce genre sont des agents pathogènes des plantes.
@@ -512,9 +524,11 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (16 septembre 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (16 septembre 2014) :
 Pestalozzia De Not. (1841)</t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (16 septembre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (16 septembre 2014) :
 Pestalotia acaciae
 Pestalotia aceris
 Pestalotia albomaculans
@@ -631,7 +647,7 @@
 Pestalotia vismifolia
 Pestalotia watsoniae
 Pestalotia weinmanniae
-Selon Index Fungorum                                      (16 septembre 2014)[3] :
+Selon Index Fungorum                                      (16 septembre 2014) :
 Pestalotia abietina Voglino 1885
 Pestalotia acaciae Thüm. 1880
 Pestalotia acaciicola Speg. 1922
@@ -749,7 +765,7 @@
 Pestalotia feijoae Savelli
 Pestalotia fibricola Grove 1886
 Pestalotia fibriseda Ellis &amp; Barthol. 1896
-Selon NCBI  (16 septembre 2014)[4] :
+Selon NCBI  (16 septembre 2014) :
 Pestalotia aceris
 Pestalotia aletridis
 Pestalotia algeriensis
